--- a/Analysis/Benchmark.xlsx
+++ b/Analysis/Benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\MetaJson\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0731F27B-B367-4646-A052-508AC6DD986B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6317FCB5-6A71-4B3B-987B-24EC4A691BEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0048A73B-88C2-4E4A-BCA0-774DD536E250}"/>
+    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{0048A73B-88C2-4E4A-BCA0-774DD536E250}"/>
   </bookViews>
   <sheets>
     <sheet name="Serialization" sheetId="2" r:id="rId1"/>
@@ -137,10 +137,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,7 +179,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -486,6 +498,8 @@
         <c:axId val="173024480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -603,6 +617,7 @@
         <c:axId val="1322004784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -948,16 +963,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2224</c:v>
+                  <c:v>2.2240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7792</c:v>
+                  <c:v>7.7919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59840</c:v>
+                  <c:v>59.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>536376</c:v>
+                  <c:v>536.37599999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,16 +1050,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2848</c:v>
+                  <c:v>2.8479999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9376</c:v>
+                  <c:v>9.3759999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70952</c:v>
+                  <c:v>70.951999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>691064</c:v>
+                  <c:v>691.06399999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,6 +1086,8 @@
         <c:axId val="267705328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1659,6 +1676,8 @@
         <c:axId val="1314835600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1776,6 +1795,7 @@
         <c:axId val="258814528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2121,16 +2141,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>864</c:v>
+                  <c:v>0.86399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4336</c:v>
+                  <c:v>4.3360000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38368</c:v>
+                  <c:v>38.368000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>375280</c:v>
+                  <c:v>375.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2208,16 +2228,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5456</c:v>
+                  <c:v>5.4560000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11328</c:v>
+                  <c:v>11.327999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28312</c:v>
+                  <c:v>28.312000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>193920</c:v>
+                  <c:v>193.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2244,6 +2264,8 @@
         <c:axId val="260422528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4792,7 +4814,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -4821,13 +4843,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>385762</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
@@ -4937,7 +4959,7 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{F5F2A63E-3E89-4FEF-85A0-ED0FD2260618}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="11">
+  <queryTableRefresh nextId="13">
     <queryTableFields count="10">
       <queryTableField id="1" name="Method" tableColumnId="1"/>
       <queryTableField id="2" name="ChaptersCount" tableColumnId="2"/>
@@ -4956,7 +4978,7 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="1" xr16:uid="{7CE5868B-3B51-40A7-AF6C-37AC7905D32E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="11">
+  <queryTableRefresh nextId="13">
     <queryTableFields count="10">
       <queryTableField id="1" name="Method" tableColumnId="1"/>
       <queryTableField id="2" name="ChaptersCount" tableColumnId="2"/>
@@ -4980,16 +5002,16 @@
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C4ECCAC2-A4BB-471C-A8DD-FF55E7C067CE}" uniqueName="1" name="Method" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{C4ECCAC2-A4BB-471C-A8DD-FF55E7C067CE}" uniqueName="1" name="Method" queryTableFieldId="1" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{150AAF77-187C-4E26-8FE6-481F4F63CB91}" uniqueName="2" name="ChaptersCount" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{EEE62111-6C0A-4CF3-A2FE-E9B22827D124}" uniqueName="3" name="Mean [μs]" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{C9B6E529-BD44-47C3-808D-539E9A09B1F9}" uniqueName="4" name="Error [μs]" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{42140565-419E-466C-A55C-926D5B486106}" uniqueName="5" name="StdDev [μs]" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{54869BE1-9414-479B-B700-32243FD550E3}" uniqueName="6" name="Ratio" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{425CEB38-F1BF-4A68-8E66-1EE89626C69F}" uniqueName="7" name="Gen 0" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{03A3712F-4B4F-4D7B-9C0D-1BC9E3DFA4A5}" uniqueName="8" name="Gen 1" queryTableFieldId="8" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{E4722B22-022F-4C99-A31E-05A6BE6D4753}" uniqueName="9" name="Gen 2" queryTableFieldId="9" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{80188234-BA4B-456B-9724-2AC9256D5211}" uniqueName="10" name="Allocated [KB]" queryTableFieldId="10"/>
+    <tableColumn id="8" xr3:uid="{03A3712F-4B4F-4D7B-9C0D-1BC9E3DFA4A5}" uniqueName="8" name="Gen 1" queryTableFieldId="8" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{E4722B22-022F-4C99-A31E-05A6BE6D4753}" uniqueName="9" name="Gen 2" queryTableFieldId="9" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{80188234-BA4B-456B-9724-2AC9256D5211}" uniqueName="10" name="Allocated [KB]" queryTableFieldId="10" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5002,16 +5024,16 @@
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A9469FC6-8243-4FE7-A049-147A88F334B2}" uniqueName="1" name="Method" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A9469FC6-8243-4FE7-A049-147A88F334B2}" uniqueName="1" name="Method" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{7B6707B1-920D-4561-87D4-A2CE1A79A23C}" uniqueName="2" name="ChaptersCount" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{D8691E8C-2C29-49F0-8A86-3ADACE40B657}" uniqueName="3" name="Mean [μs]" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{57CC9647-AC64-499C-AE31-CF48369F507B}" uniqueName="4" name="Error [μs]" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{03A5869A-8415-482D-9686-E1C173CF72C7}" uniqueName="5" name="StdDev [μs]" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{0F830E49-93E9-4509-8C1A-A296B5AE8E88}" uniqueName="6" name="Ratio" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{99E9818C-4555-4D7B-8822-9BB2C3C31872}" uniqueName="7" name="Gen 0" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{26DDF31D-C551-425A-B93C-59F86DC3C6CE}" uniqueName="8" name="Gen 1" queryTableFieldId="8" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{3C8BB353-4621-414E-8D45-3A32DA39A7A3}" uniqueName="9" name="Gen 2" queryTableFieldId="9" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{AA82BAB2-DDE4-474E-8364-21C6E48D2695}" uniqueName="10" name="Allocated [KB]" queryTableFieldId="10"/>
+    <tableColumn id="8" xr3:uid="{26DDF31D-C551-425A-B93C-59F86DC3C6CE}" uniqueName="8" name="Gen 1" queryTableFieldId="8" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{3C8BB353-4621-414E-8D45-3A32DA39A7A3}" uniqueName="9" name="Gen 2" queryTableFieldId="9" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{AA82BAB2-DDE4-474E-8364-21C6E48D2695}" uniqueName="10" name="Allocated [KB]" queryTableFieldId="10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5317,7 +5339,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5392,8 +5414,8 @@
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2">
-        <v>2224</v>
+      <c r="J2" s="1">
+        <v>2.2240000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5424,8 +5446,8 @@
       <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3">
-        <v>7792</v>
+      <c r="J3" s="1">
+        <v>7.7919999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5456,8 +5478,8 @@
       <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4">
-        <v>59840</v>
+      <c r="J4" s="1">
+        <v>59.84</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5488,8 +5510,8 @@
       <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J5">
-        <v>536376</v>
+      <c r="J5" s="1">
+        <v>536.37599999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5520,8 +5542,8 @@
       <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J6">
-        <v>2848</v>
+      <c r="J6" s="1">
+        <v>2.8479999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5552,8 +5574,8 @@
       <c r="I7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J7">
-        <v>9376</v>
+      <c r="J7" s="1">
+        <v>9.3759999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5584,8 +5606,8 @@
       <c r="I8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J8">
-        <v>70952</v>
+      <c r="J8" s="1">
+        <v>70.951999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5616,11 +5638,12 @@
       <c r="I9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J9">
-        <v>691064</v>
+      <c r="J9" s="1">
+        <v>691.06399999999996</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -5634,7 +5657,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5709,8 +5732,9 @@
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2">
-        <v>864</v>
+      <c r="J2" s="1">
+        <f ca="1">BenchmarkProject_DeserializationBenchmark_report[[#This Row],[Allocated '[KB']]]/1000</f>
+        <v>0.86399999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5741,8 +5765,9 @@
       <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3">
-        <v>4336</v>
+      <c r="J3" s="1">
+        <f ca="1">BenchmarkProject_DeserializationBenchmark_report[[#This Row],[Allocated '[KB']]]/1000</f>
+        <v>4.3360000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5773,8 +5798,9 @@
       <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4">
-        <v>38368</v>
+      <c r="J4" s="1">
+        <f ca="1">BenchmarkProject_DeserializationBenchmark_report[[#This Row],[Allocated '[KB']]]/1000</f>
+        <v>38.368000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5805,8 +5831,9 @@
       <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J5">
-        <v>375280</v>
+      <c r="J5" s="1">
+        <f ca="1">BenchmarkProject_DeserializationBenchmark_report[[#This Row],[Allocated '[KB']]]/1000</f>
+        <v>375.28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5837,8 +5864,9 @@
       <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J6">
-        <v>5456</v>
+      <c r="J6" s="1">
+        <f ca="1">BenchmarkProject_DeserializationBenchmark_report[[#This Row],[Allocated '[KB']]]/1000</f>
+        <v>5.4560000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5869,8 +5897,9 @@
       <c r="I7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J7">
-        <v>11328</v>
+      <c r="J7" s="1">
+        <f ca="1">BenchmarkProject_DeserializationBenchmark_report[[#This Row],[Allocated '[KB']]]/1000</f>
+        <v>11.327999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5901,8 +5930,9 @@
       <c r="I8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J8">
-        <v>28312</v>
+      <c r="J8" s="1">
+        <f ca="1">BenchmarkProject_DeserializationBenchmark_report[[#This Row],[Allocated '[KB']]]/1000</f>
+        <v>28.312000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5933,11 +5963,13 @@
       <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J9">
-        <v>193920</v>
+      <c r="J9" s="1">
+        <f ca="1">BenchmarkProject_DeserializationBenchmark_report[[#This Row],[Allocated '[KB']]]/1000</f>
+        <v>193.92</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
